--- a/Bilan.xlsx
+++ b/Bilan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ETC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E07BEA1-6388-4F51-ACEA-95A440BD7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166426EE-04FE-4A01-840A-817C37E83E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +860,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="G6" s="29">
         <f ca="1">NOW()-5</f>
-        <v>44888.377197800924</v>
+        <v>44888.580976504629</v>
       </c>
       <c r="H6" s="16">
         <f ca="1">IF(I6&lt;=0.2,1,IF(AND(I6&gt;0.2,I6&lt;=0.4),2,IF(AND(I6&gt;0.4,I6&lt;=0.6),3,IF(AND(I6&gt;=0.6,I6&lt;0.8),4,IF(I6&gt;0.8,5,"error")))))</f>
@@ -1916,7 +1916,7 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3395996858463537</v>
+        <v>4.3687109292326829</v>
       </c>
     </row>
   </sheetData>
